--- a/Results/gpt-5/Vancoillie2015, 25945956/cost.xlsx
+++ b/Results/gpt-5/Vancoillie2015, 25945956/cost.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5773</v>
+        <v>7972</v>
       </c>
     </row>
     <row r="3">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16056</v>
+        <v>12680</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>21829</v>
+        <v>20652</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.006711050000000001</v>
+        <v>0.136765</v>
       </c>
     </row>
   </sheetData>
